--- a/DataDrivenFile.xlsx
+++ b/DataDrivenFile.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\E0360088\eclipse-workspaceNew\MainDataProvider\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6535E2A-AAA8-42CD-9266-59EAD4966B92}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6C28186-8D8A-4E56-AD56-42FE669728B4}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{958CC76F-C632-4C73-9EC4-A914EC67275E}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="6">
   <si>
     <t>ID</t>
   </si>
@@ -46,6 +46,9 @@
   </si>
   <si>
     <t>Sumit2</t>
+  </si>
+  <si>
+    <t>Sumit3</t>
   </si>
 </sst>
 </file>
@@ -397,10 +400,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{662682D5-2AA2-4413-A781-D1BE530C218D}">
-  <dimension ref="A1:B3"/>
+  <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -429,6 +432,14 @@
         <v>4</v>
       </c>
     </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" t="s">
+        <v>5</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/DataDrivenFile.xlsx
+++ b/DataDrivenFile.xlsx
@@ -3,19 +3,15 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21328"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\E0360088\eclipse-workspaceNew\MainDataProvider\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6C28186-8D8A-4E56-AD56-42FE669728B4}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{BBE28C96-F917-49A0-8BBF-9ABEB0BB5691}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{958CC76F-C632-4C73-9EC4-A914EC67275E}"/>
+    <workbookView xWindow="1520" yWindow="1520" windowWidth="19440" windowHeight="11060" xr2:uid="{958CC76F-C632-4C73-9EC4-A914EC67275E}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="0"/>
+  <oleSize ref="A1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -31,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>ID</t>
   </si>
@@ -39,16 +35,34 @@
     <t>Pass</t>
   </si>
   <si>
-    <t>sumit1</t>
-  </si>
-  <si>
-    <t>Sumit1</t>
-  </si>
-  <si>
-    <t>Sumit2</t>
-  </si>
-  <si>
-    <t>Sumit3</t>
+    <t>sumitIdentity1</t>
+  </si>
+  <si>
+    <t>SummitPass1</t>
+  </si>
+  <si>
+    <t>sumitIdentity2</t>
+  </si>
+  <si>
+    <t>SummitPass2</t>
+  </si>
+  <si>
+    <t>sumitIdentity3</t>
+  </si>
+  <si>
+    <t>SummitPass3</t>
+  </si>
+  <si>
+    <t>sumitIdentity4</t>
+  </si>
+  <si>
+    <t>SummitPass4</t>
+  </si>
+  <si>
+    <t>sumitIdentity5</t>
+  </si>
+  <si>
+    <t>SummitPass5</t>
   </si>
 </sst>
 </file>
@@ -400,10 +414,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{662682D5-2AA2-4413-A781-D1BE530C218D}">
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="H1" sqref="H1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -429,15 +443,31 @@
         <v>4</v>
       </c>
       <c r="B3" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B4" t="s">
-        <v>5</v>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" t="s">
+        <v>11</v>
       </c>
     </row>
   </sheetData>

--- a/DataDrivenFile.xlsx
+++ b/DataDrivenFile.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21328"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{8B2CA21E-5DB8-4517-A99E-2F32CC4F9F08}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{3644E4B4-8D22-4763-ADED-F156FBAB4C4E}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1520" yWindow="1520" windowWidth="19460" windowHeight="11060" xr2:uid="{958CC76F-C632-4C73-9EC4-A914EC67275E}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t>ID</t>
   </si>
@@ -29,10 +29,16 @@
     <t>Pass</t>
   </si>
   <si>
-    <t>sumitIdentity1</t>
-  </si>
-  <si>
-    <t>SummitPass1</t>
+    <t>sumitIdentity7</t>
+  </si>
+  <si>
+    <t>SummitPass7</t>
+  </si>
+  <si>
+    <t>sumitIdentity8</t>
+  </si>
+  <si>
+    <t>SummitPass8</t>
   </si>
 </sst>
 </file>
@@ -387,7 +393,7 @@
   <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:B6"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -408,7 +414,14 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.35"/>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" t="s">
+        <v>5</v>
+      </c>
+    </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.35"/>
     <row r="5" spans="1:2" x14ac:dyDescent="0.35"/>
     <row r="6" spans="1:2" x14ac:dyDescent="0.35"/>
